--- a/src/test/resources/track.xlsx
+++ b/src/test/resources/track.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/workspace/ece1186/src/main/java/info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/workspace/ece1186/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="111">
   <si>
     <t>Block Number</t>
   </si>
@@ -265,9 +265,6 @@
     <t>ZZ</t>
   </si>
   <si>
-    <t>YY</t>
-  </si>
-  <si>
     <t>Head</t>
   </si>
   <si>
@@ -359,6 +356,12 @@
   </si>
   <si>
     <t>STATION;         MT LEBANON; SWITCH</t>
+  </si>
+  <si>
+    <t>YARD</t>
+  </si>
+  <si>
+    <t>ZY</t>
   </si>
 </sst>
 </file>
@@ -369,9 +372,16 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -469,36 +479,39 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -510,7 +523,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -907,10 +920,10 @@
         <v>63</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -944,7 +957,7 @@
         <v>70</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1005,7 +1018,7 @@
         <v>1.5</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -1037,7 +1050,7 @@
         <v>2.5</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1098,7 +1111,7 @@
         <v>3.75</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -1122,7 +1135,7 @@
         <v>40</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H8" s="11">
         <f t="shared" si="0"/>
@@ -1133,10 +1146,10 @@
         <v>4.125</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1203,7 +1216,7 @@
         <v>75</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L10" s="10"/>
     </row>
@@ -1239,7 +1252,7 @@
         <v>75</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1300,7 +1313,7 @@
         <v>3.375</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1332,7 +1345,7 @@
         <v>2.6909999999999998</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1399,7 +1412,7 @@
         <v>70</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -1423,7 +1436,7 @@
         <v>40</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="0"/>
@@ -1437,10 +1450,10 @@
         <v>70</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1560,7 +1573,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -1595,10 +1608,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1659,7 +1672,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1694,7 +1707,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -1729,7 +1742,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -2066,7 +2079,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -2403,10 +2416,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L46" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -2441,7 +2454,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -2509,10 +2522,10 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L49" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -2544,7 +2557,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -2701,7 +2714,7 @@
         <v>-3.3306690738754696E-16</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -2733,7 +2746,7 @@
         <v>0.37499999999999967</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -2794,7 +2807,7 @@
         <v>1.1249999999999996</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -2826,7 +2839,7 @@
         <v>1.8749999999999996</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -2890,10 +2903,10 @@
         <v>2.2499999999999996</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L61" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -2925,7 +2938,7 @@
         <v>1.8749999999999996</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -2986,7 +2999,7 @@
         <v>0.37499999999999956</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
@@ -3018,7 +3031,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
@@ -3082,7 +3095,7 @@
         <v>74</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
@@ -3120,7 +3133,7 @@
         <v>69</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -3155,7 +3168,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -3222,7 +3235,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
@@ -3260,7 +3273,7 @@
         <v>73</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
@@ -3298,7 +3311,7 @@
         <v>72</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
@@ -3333,7 +3346,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
@@ -3400,7 +3413,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
@@ -3438,7 +3451,7 @@
         <v>71</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
@@ -3472,7 +3485,7 @@
         <v>75</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
@@ -3714,8 +3727,8 @@
   <dimension ref="A1:L153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G86" sqref="G86"/>
+      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D168" sqref="D168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3766,10 +3779,10 @@
         <v>63</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3803,7 +3816,7 @@
         <v>64</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3838,7 +3851,7 @@
         <v>1.5</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -3870,7 +3883,7 @@
         <v>3</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -3902,7 +3915,7 @@
         <v>5</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -3963,7 +3976,7 @@
         <v>12</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -3996,7 +4009,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L8" s="10"/>
     </row>
@@ -4061,7 +4074,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4154,7 +4167,7 @@
         <v>64</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -4192,7 +4205,7 @@
         <v>64</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -4285,10 +4298,10 @@
         <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -4320,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -4414,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -4446,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -4481,7 +4494,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -4664,7 +4677,7 @@
         <v>65</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -4699,7 +4712,7 @@
         <v>65</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -4763,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -4795,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -4827,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -4888,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -4923,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -5022,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -5313,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -5607,10 +5620,10 @@
         <v>66</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L58" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -5648,7 +5661,7 @@
         <v>66</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L59" s="10"/>
     </row>
@@ -5777,7 +5790,7 @@
         <v>76</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L63" s="10"/>
     </row>
@@ -5810,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -5874,7 +5887,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -5964,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -5996,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -6118,10 +6131,10 @@
         <v>0</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L74" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -6153,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -6217,7 +6230,7 @@
         <v>67</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -6241,7 +6254,7 @@
         <v>70</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H78" s="3">
         <f t="shared" si="4"/>
@@ -6255,10 +6268,10 @@
         <v>67</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L78" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -6499,7 +6512,7 @@
         <v>68</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -6534,7 +6547,7 @@
         <v>68</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -6598,10 +6611,10 @@
         <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L89" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -6633,7 +6646,7 @@
         <v>-0.375</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -6831,7 +6844,7 @@
         <v>55</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H97" s="3">
         <f t="shared" si="4"/>
@@ -6842,7 +6855,7 @@
         <v>0</v>
       </c>
       <c r="L97" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -6874,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -6906,7 +6919,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -6970,7 +6983,7 @@
         <v>68</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -7005,7 +7018,7 @@
         <v>67</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -7037,7 +7050,7 @@
         <v>0</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -7098,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -7134,7 +7147,7 @@
         <v>0</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L106" s="10" t="str">
         <f>L74</f>
@@ -7257,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
@@ -7289,7 +7302,7 @@
         <v>0</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
@@ -7474,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
@@ -7506,7 +7519,7 @@
         <v>0</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
@@ -7625,7 +7638,7 @@
         <v>0</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
@@ -7660,7 +7673,7 @@
         <v>0</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -8350,10 +8363,10 @@
         <v>0</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Green</v>
@@ -8382,10 +8395,10 @@
         <v>0</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Green</v>
@@ -8414,7 +8427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Green</v>
@@ -8443,10 +8456,10 @@
         <v>0</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Green</v>
@@ -8475,10 +8488,10 @@
         <v>0</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Green</v>
@@ -8507,7 +8520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Green</v>
@@ -8536,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Green</v>
@@ -8571,16 +8584,16 @@
         <v>65</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Green</v>
       </c>
-      <c r="B152" s="3" t="s">
-        <v>77</v>
+      <c r="B152" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="C152" s="5">
         <v>151</v>
@@ -8606,16 +8619,19 @@
         <v>66</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="L152" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="str">
         <f t="shared" si="11"/>
         <v>Green</v>
       </c>
-      <c r="B153" s="3" t="s">
-        <v>78</v>
+      <c r="B153" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="C153" s="5">
         <v>152</v>
@@ -8641,7 +8657,10 @@
         <v>76</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="L153" s="16" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
